--- a/DM-CPE1A-19-20-ATTENDANCE.xlsx
+++ b/DM-CPE1A-19-20-ATTENDANCE.xlsx
@@ -225,7 +225,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +247,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,12 +300,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,8 +598,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,64 +616,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:16" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
     </row>
     <row r="5" spans="1:16" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F5" s="2"/>
@@ -844,10 +832,10 @@
       <c r="A9" s="6">
         <v>3</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>966289</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
